--- a/chiru.xlsx
+++ b/chiru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12760"/>
+    <workbookView windowWidth="29400" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
   <si>
     <t>chirank577@gmail.com</t>
@@ -44,6 +47,12 @@
   </si>
   <si>
     <t>chirank57@gmail.com</t>
+  </si>
+  <si>
+    <t>chiran@gmail.com</t>
+  </si>
+  <si>
+    <t>chirank@577</t>
   </si>
 </sst>
 </file>
@@ -70,6 +79,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -84,20 +107,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color indexed="4"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -470,27 +479,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,13 +635,13 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,34 +653,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,47 +765,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1165,93 +1156,101 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:26">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="17.55" spans="1:30">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="11"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="10"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="chirank577@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="chirank577@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Chirank@577" tooltip="mailto:Chirank@577"/>
+    <hyperlink ref="A3" r:id="rId3" display="chirank57@gmail.com" tooltip="mailto:chirank57@gmail.com"/>
     <hyperlink ref="B3" r:id="rId2" display="Chirank@577" tooltip="mailto:Chirank@577"/>
-    <hyperlink ref="A4" r:id="rId3" display="chirank57@gmail.com" tooltip="mailto:chirank57@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="Chirank@577" tooltip="mailto:Chirank@577"/>
+    <hyperlink ref="A4" r:id="rId4" display="chiran@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="chirank@577"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
